--- a/ClientSatisFactionReport.xlsx
+++ b/ClientSatisFactionReport.xlsx
@@ -18586,7 +18586,7 @@
       </c>
       <c r="B13" s="54"/>
       <c r="C13" s="19">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -18781,7 +18781,9 @@
         <v>38</v>
       </c>
       <c r="B22" s="52"/>
-      <c r="C22" s="43"/>
+      <c r="C22" s="43">
+        <v>20</v>
+      </c>
       <c r="D22" s="44"/>
       <c r="E22" s="45"/>
       <c r="G22" s="51" t="s">
@@ -18842,7 +18844,7 @@
       </c>
       <c r="B25" s="71"/>
       <c r="C25" s="43">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D25" s="44"/>
       <c r="E25" s="45"/>
@@ -18855,7 +18857,7 @@
       <c r="K25" s="63"/>
       <c r="L25" s="52"/>
       <c r="M25" s="43">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="N25" s="44"/>
       <c r="O25" s="45"/>
@@ -18866,7 +18868,7 @@
       </c>
       <c r="B26" s="71"/>
       <c r="C26" s="43">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="45"/>
@@ -18879,7 +18881,7 @@
       <c r="K26" s="63"/>
       <c r="L26" s="52"/>
       <c r="M26" s="43">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="N26" s="44"/>
       <c r="O26" s="45"/>
@@ -18901,7 +18903,7 @@
       <c r="K27" s="63"/>
       <c r="L27" s="52"/>
       <c r="M27" s="43">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="N27" s="44"/>
       <c r="O27" s="45"/>
@@ -27514,11 +27516,11 @@
       <c r="B11" s="102"/>
       <c r="C11" s="103"/>
       <c r="D11" s="142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="143"/>
       <c r="F11" s="142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="143"/>
       <c r="H11" s="142">
@@ -27526,11 +27528,11 @@
       </c>
       <c r="I11" s="143"/>
       <c r="J11" s="142">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K11" s="143"/>
       <c r="L11" s="142">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="M11" s="144"/>
       <c r="N11" s="145" t="str">
@@ -27539,7 +27541,7 @@
       </c>
       <c r="O11" s="145"/>
       <c r="P11" s="138" t="str">
-        <f>(N11)/13*100</f>
+        <f>(N11)/47*100</f>
         <v>0</v>
       </c>
       <c r="Q11" s="139"/>
@@ -27548,12 +27550,10 @@
       <c r="A12" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="102">
-        <v>7</v>
-      </c>
+      <c r="B12" s="102"/>
       <c r="C12" s="103"/>
       <c r="D12" s="142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="143"/>
       <c r="F12" s="142">
@@ -27561,14 +27561,16 @@
       </c>
       <c r="G12" s="143"/>
       <c r="H12" s="142">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I12" s="143"/>
       <c r="J12" s="142">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K12" s="143"/>
-      <c r="L12" s="142"/>
+      <c r="L12" s="142">
+        <v>37</v>
+      </c>
       <c r="M12" s="144"/>
       <c r="N12" s="145" t="str">
         <f>SUM(J12:L12)</f>
@@ -27576,7 +27578,7 @@
       </c>
       <c r="O12" s="145"/>
       <c r="P12" s="138" t="str">
-        <f>(N12)/13*100</f>
+        <f>(N12)/47*100</f>
         <v>0</v>
       </c>
       <c r="Q12" s="139"/>
@@ -27585,27 +27587,27 @@
       <c r="A13" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="102">
-        <v>1</v>
-      </c>
+      <c r="B13" s="102"/>
       <c r="C13" s="103"/>
       <c r="D13" s="142">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E13" s="143"/>
       <c r="F13" s="142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="143"/>
       <c r="H13" s="142">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I13" s="143"/>
       <c r="J13" s="142">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K13" s="143"/>
-      <c r="L13" s="142"/>
+      <c r="L13" s="142">
+        <v>36</v>
+      </c>
       <c r="M13" s="144"/>
       <c r="N13" s="145" t="str">
         <f>SUM(J13:L13)</f>
@@ -27613,7 +27615,7 @@
       </c>
       <c r="O13" s="145"/>
       <c r="P13" s="138" t="str">
-        <f>(N13)/13*100</f>
+        <f>(N13)/47*100</f>
         <v>0</v>
       </c>
       <c r="Q13" s="139"/>
@@ -27622,12 +27624,10 @@
       <c r="A14" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="102">
-        <v>7</v>
-      </c>
+      <c r="B14" s="102"/>
       <c r="C14" s="103"/>
       <c r="D14" s="142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="143"/>
       <c r="F14" s="142">
@@ -27635,14 +27635,16 @@
       </c>
       <c r="G14" s="143"/>
       <c r="H14" s="142">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I14" s="143"/>
       <c r="J14" s="142">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K14" s="143"/>
-      <c r="L14" s="142"/>
+      <c r="L14" s="142">
+        <v>35</v>
+      </c>
       <c r="M14" s="144"/>
       <c r="N14" s="145" t="str">
         <f>SUM(J14:L14)</f>
@@ -27650,7 +27652,7 @@
       </c>
       <c r="O14" s="145"/>
       <c r="P14" s="138" t="str">
-        <f>(N14)/13*100</f>
+        <f>(N14)/47*100</f>
         <v>0</v>
       </c>
       <c r="Q14" s="139"/>
@@ -27659,23 +27661,27 @@
       <c r="A15" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="102">
-        <v>1</v>
-      </c>
+      <c r="B15" s="102"/>
       <c r="C15" s="103"/>
       <c r="D15" s="142">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E15" s="143"/>
       <c r="F15" s="142">
+        <v>1</v>
+      </c>
+      <c r="G15" s="143"/>
+      <c r="H15" s="142">
+        <v>1</v>
+      </c>
+      <c r="I15" s="143"/>
+      <c r="J15" s="142">
         <v>2</v>
       </c>
-      <c r="G15" s="143"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="142"/>
       <c r="K15" s="143"/>
-      <c r="L15" s="142"/>
+      <c r="L15" s="142">
+        <v>42</v>
+      </c>
       <c r="M15" s="144"/>
       <c r="N15" s="145" t="str">
         <f>SUM(J15:L15)</f>
@@ -27683,7 +27689,7 @@
       </c>
       <c r="O15" s="145"/>
       <c r="P15" s="138" t="str">
-        <f>(N15)/13*100</f>
+        <f>(N15)/47*100</f>
         <v>0</v>
       </c>
       <c r="Q15" s="139"/>
@@ -27694,19 +27700,35 @@
       </c>
       <c r="B16" s="102"/>
       <c r="C16" s="103"/>
-      <c r="D16" s="142"/>
+      <c r="D16" s="142">
+        <v>1</v>
+      </c>
       <c r="E16" s="143"/>
-      <c r="F16" s="142"/>
+      <c r="F16" s="142">
+        <v>2</v>
+      </c>
       <c r="G16" s="143"/>
-      <c r="H16" s="142"/>
+      <c r="H16" s="142">
+        <v>3</v>
+      </c>
       <c r="I16" s="143"/>
-      <c r="J16" s="142"/>
+      <c r="J16" s="142">
+        <v>7</v>
+      </c>
       <c r="K16" s="143"/>
-      <c r="L16" s="142"/>
+      <c r="L16" s="142">
+        <v>34</v>
+      </c>
       <c r="M16" s="144"/>
-      <c r="N16" s="145"/>
+      <c r="N16" s="145" t="str">
+        <f>SUM(J16:L16)</f>
+        <v>0</v>
+      </c>
       <c r="O16" s="145"/>
-      <c r="P16" s="138"/>
+      <c r="P16" s="138" t="str">
+        <f>(N16)/47*100</f>
+        <v>0</v>
+      </c>
       <c r="Q16" s="139"/>
     </row>
     <row r="17" spans="1:18" customHeight="1" ht="24" s="17" customFormat="1">
@@ -27715,19 +27737,35 @@
       </c>
       <c r="B17" s="102"/>
       <c r="C17" s="103"/>
-      <c r="D17" s="142"/>
+      <c r="D17" s="142">
+        <v>1</v>
+      </c>
       <c r="E17" s="143"/>
-      <c r="F17" s="142"/>
+      <c r="F17" s="142">
+        <v>2</v>
+      </c>
       <c r="G17" s="143"/>
-      <c r="H17" s="142"/>
+      <c r="H17" s="142">
+        <v>1</v>
+      </c>
       <c r="I17" s="143"/>
-      <c r="J17" s="142"/>
+      <c r="J17" s="142">
+        <v>9</v>
+      </c>
       <c r="K17" s="143"/>
-      <c r="L17" s="142"/>
+      <c r="L17" s="142">
+        <v>34</v>
+      </c>
       <c r="M17" s="144"/>
-      <c r="N17" s="145"/>
+      <c r="N17" s="145" t="str">
+        <f>SUM(J17:L17)</f>
+        <v>0</v>
+      </c>
       <c r="O17" s="145"/>
-      <c r="P17" s="138"/>
+      <c r="P17" s="138" t="str">
+        <f>(N17)/47*100</f>
+        <v>0</v>
+      </c>
       <c r="Q17" s="139"/>
     </row>
     <row r="18" spans="1:18" customHeight="1" ht="24" s="17" customFormat="1">
@@ -27736,19 +27774,35 @@
       </c>
       <c r="B18" s="102"/>
       <c r="C18" s="103"/>
-      <c r="D18" s="142"/>
+      <c r="D18" s="142">
+        <v>1</v>
+      </c>
       <c r="E18" s="143"/>
-      <c r="F18" s="142"/>
+      <c r="F18" s="142">
+        <v>1</v>
+      </c>
       <c r="G18" s="143"/>
-      <c r="H18" s="142"/>
+      <c r="H18" s="142">
+        <v>1</v>
+      </c>
       <c r="I18" s="143"/>
-      <c r="J18" s="142"/>
+      <c r="J18" s="142">
+        <v>9</v>
+      </c>
       <c r="K18" s="143"/>
-      <c r="L18" s="142"/>
+      <c r="L18" s="142">
+        <v>35</v>
+      </c>
       <c r="M18" s="144"/>
-      <c r="N18" s="145"/>
+      <c r="N18" s="145" t="str">
+        <f>SUM(J18:L18)</f>
+        <v>0</v>
+      </c>
       <c r="O18" s="145"/>
-      <c r="P18" s="138"/>
+      <c r="P18" s="138" t="str">
+        <f>(N18)/47*100</f>
+        <v>0</v>
+      </c>
       <c r="Q18" s="139"/>
     </row>
     <row r="19" spans="1:18" customHeight="1" ht="24" s="17" customFormat="1">
@@ -27819,7 +27873,7 @@
     </row>
     <row r="23" spans="1:18" customHeight="1" ht="20">
       <c r="A23" s="134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" s="135"/>
       <c r="C23" s="135"/>
@@ -27827,8 +27881,9 @@
       <c r="E23" s="135"/>
       <c r="F23" s="135"/>
       <c r="G23" s="135"/>
-      <c r="H23" s="136">
-        <v>INF</v>
+      <c r="H23" s="136" t="str">
+        <f>(0 / )*100</f>
+        <v>0</v>
       </c>
       <c r="I23" s="136"/>
       <c r="J23" s="136"/>
